--- a/test/xlsx/mergeCells.xlsx
+++ b/test/xlsx/mergeCells.xlsx
@@ -5,7 +5,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId2" state="visible"/>
   </sheets>
 </workbook>
 </file>

--- a/test/xlsx/mergeCells.xlsx
+++ b/test/xlsx/mergeCells.xlsx
@@ -11,12 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Nullam aliquet mi et nunc tempus rutrum.</t>
+    <t>Aliquip aliqua ex magna pariatur in enim.</t>
   </si>
   <si>
-    <t>Dolore anim</t>
+    <t>duis laborum</t>
+  </si>
+  <si>
+    <t>Elit dolore in eiusmod exercitation reprehenderit eu.</t>
+  </si>
+  <si>
+    <t>dolor ut</t>
+  </si>
+  <si>
+    <t>elit culpa</t>
+  </si>
+  <si>
+    <t>Incididunt et sunt ipsum aliqua excepteur nostrud.</t>
+  </si>
+  <si>
+    <t>Lorem nulla</t>
   </si>
 </sst>
 </file>
@@ -59,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" view="normal"/>
   </sheetViews>
@@ -86,29 +101,86 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2541</v>
+        <v>3</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2542</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C10"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/test/xlsx/mergeCells.xlsx
+++ b/test/xlsx/mergeCells.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Aliquip aliqua ex magna pariatur in enim.</t>
   </si>
@@ -32,6 +32,36 @@
   </si>
   <si>
     <t>Lorem nulla</t>
+  </si>
+  <si>
+    <t>Officia deserunt elit</t>
+  </si>
+  <si>
+    <t>Mollit aliqua</t>
+  </si>
+  <si>
+    <t>Pariatur elit duis</t>
+  </si>
+  <si>
+    <t>Sunt qui ipsum</t>
+  </si>
+  <si>
+    <t>Esse consectetur ex</t>
+  </si>
+  <si>
+    <t>Minim nisi</t>
+  </si>
+  <si>
+    <t>Dolore id sint</t>
+  </si>
+  <si>
+    <t>Anim irure pariatur</t>
+  </si>
+  <si>
+    <t>Ea commodo nostrud incididunt incididunt qui in.</t>
+  </si>
+  <si>
+    <t>ex magna</t>
   </si>
 </sst>
 </file>
@@ -42,7 +72,7 @@
   <fonts count="1">
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none">
         <fgColor rgb="FFFFFFFF"/>
@@ -55,8 +85,26 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb0ffff"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb0ffb0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffffb0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -64,9 +112,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf/>
+    <xf applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fillId="2" applyFill="true" borderId="1" applyBorder="true"/>
+    <xf applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" fillId="2" applyFill="true" borderId="2" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" fillId="2" applyFill="true" borderId="2" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fillId="3" applyFill="true" borderId="1" applyBorder="true"/>
+    <xf applyAlignment="true" fillId="3" applyFill="true" borderId="2" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" fillId="3" applyFill="true" borderId="2" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" fillId="4" applyFill="true" borderId="1" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <dxfs count="0"/>
 </styleSheet>
@@ -74,7 +175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" view="normal"/>
   </sheetViews>
@@ -103,10 +204,10 @@
       <c r="A2">
         <v>2542</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>3</v>
       </c>
@@ -115,8 +216,8 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -125,8 +226,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>4</v>
       </c>
@@ -156,31 +257,104 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" s="4">
+        <v>123</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>542</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7">
+        <v>245</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>358</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7">
+        <v>864</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
-        <v>2542</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
+    <row r="14">
+      <c r="A14">
+        <v>2547</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
     <mergeCell ref="B2:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B14:C15"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/test/xlsx/mergeCells.xlsx
+++ b/test/xlsx/mergeCells.xlsx
@@ -72,7 +72,7 @@
   <fonts count="1">
     <font/>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none">
         <fgColor rgb="FFFFFFFF"/>
@@ -94,6 +94,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFb0ffb0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffb0ff"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb0b0ff"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -143,7 +155,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf/>
     <xf applyAlignment="true">
       <alignment vertical="top"/>
@@ -159,13 +171,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf fillId="3" applyFill="true" borderId="1" applyBorder="true"/>
+    <xf applyAlignment="true" fillId="4" applyFill="true">
+      <alignment vertical="top"/>
+    </xf>
     <xf applyAlignment="true" fillId="3" applyFill="true" borderId="2" applyBorder="true">
       <alignment vertical="top"/>
     </xf>
+    <xf fillId="5" applyFill="true" borderId="2" applyBorder="true"/>
+    <xf fillId="4" applyFill="true" borderId="2" applyBorder="true"/>
     <xf applyAlignment="true" fillId="3" applyFill="true" borderId="2" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" fillId="4" applyFill="true" borderId="1" applyBorder="true">
+    <xf applyAlignment="true" fillId="4" applyFill="true" borderId="2" applyBorder="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" fillId="6" applyFill="true" borderId="1" applyBorder="true">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -287,36 +307,36 @@
       <c r="D9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>245</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="10">
         <v>358</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="12">
         <v>864</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13">
       <c r="A13">
@@ -330,18 +350,18 @@
       <c r="A14">
         <v>2547</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="13"/>
       <c r="D14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
